--- a/in/otree.xlsx
+++ b/in/otree.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aruff/Programming/Python/payment-file-merger/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aruff/Programming/Python/payment-file-merger/in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEF7E61-A45B-0043-A729-1D7189034694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FF97B7-ECCD-EC4B-AA7F-13D1B45A54E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{57416127-4942-8844-A1C6-09C7F4EA7F0A}"/>
   </bookViews>
@@ -66,15 +66,9 @@
     <t>d110nqlp</t>
   </si>
   <si>
-    <t>LAB4</t>
-  </si>
-  <si>
     <t>v8bw375w</t>
   </si>
   <si>
-    <t>LAB9</t>
-  </si>
-  <si>
     <t>jwqcqjhj</t>
   </si>
   <si>
@@ -84,21 +78,12 @@
     <t>ujqxk1gs</t>
   </si>
   <si>
-    <t>LAB3</t>
-  </si>
-  <si>
     <t>6dycaas3</t>
   </si>
   <si>
-    <t>LAB2</t>
-  </si>
-  <si>
     <t>65sg6t66</t>
   </si>
   <si>
-    <t>LAB8</t>
-  </si>
-  <si>
     <t>2z7257uc</t>
   </si>
   <si>
@@ -108,15 +93,9 @@
     <t>352yo3iv</t>
   </si>
   <si>
-    <t>LAB1</t>
-  </si>
-  <si>
     <t>el5knn0s</t>
   </si>
   <si>
-    <t>LAB7</t>
-  </si>
-  <si>
     <t>fxl1ug0t</t>
   </si>
   <si>
@@ -126,19 +105,40 @@
     <t>dkvjnoro</t>
   </si>
   <si>
-    <t>LAB6</t>
-  </si>
-  <si>
     <t>q8uppdzw</t>
   </si>
   <si>
-    <t>LAB5</t>
-  </si>
-  <si>
     <t>h06wdpgo</t>
   </si>
   <si>
     <t>LAB14</t>
+  </si>
+  <si>
+    <t>LAB04</t>
+  </si>
+  <si>
+    <t>LAB09</t>
+  </si>
+  <si>
+    <t>LAB03</t>
+  </si>
+  <si>
+    <t>LAB02</t>
+  </si>
+  <si>
+    <t>LAB08</t>
+  </si>
+  <si>
+    <t>LAB01</t>
+  </si>
+  <si>
+    <t>LAB07</t>
+  </si>
+  <si>
+    <t>LAB06</t>
+  </si>
+  <si>
+    <t>LAB05</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="4" spans="1:6" ht="22" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="5" spans="1:6" ht="22" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -626,10 +626,10 @@
     </row>
     <row r="6" spans="1:6" ht="22" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="7" spans="1:6" ht="22" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
@@ -666,10 +666,10 @@
     </row>
     <row r="8" spans="1:6" ht="22" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
@@ -686,10 +686,10 @@
     </row>
     <row r="9" spans="1:6" ht="22" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
@@ -706,10 +706,10 @@
     </row>
     <row r="10" spans="1:6" ht="22" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -726,10 +726,10 @@
     </row>
     <row r="11" spans="1:6" ht="22" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="12" spans="1:6" ht="22" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
@@ -766,10 +766,10 @@
     </row>
     <row r="13" spans="1:6" ht="22" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="14" spans="1:6" ht="22" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="15" spans="1:6" ht="22" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>
